--- a/インストール手順.xlsx
+++ b/インストール手順.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\project\50 製造\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\source\highwayshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A0C21D-9C00-40B0-9538-8D23E4236BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF51EB6-625F-4A57-9365-6CC563BCBBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム環境構築" sheetId="2" r:id="rId1"/>
@@ -23,15 +23,11 @@
     <sheet name="composer command" sheetId="8" r:id="rId8"/>
     <sheet name="Git Command" sheetId="11" r:id="rId9"/>
     <sheet name="PHP command" sheetId="9" r:id="rId10"/>
-    <sheet name="Future" sheetId="16" r:id="rId11"/>
-    <sheet name="Laravel" sheetId="17" r:id="rId12"/>
-    <sheet name="練習手順書" sheetId="12" r:id="rId13"/>
-    <sheet name="cmd命令" sheetId="14" r:id="rId14"/>
-    <sheet name="更新" sheetId="15" r:id="rId15"/>
-    <sheet name="tokyo更新手順" sheetId="18" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId17"/>
-    <sheet name="Sheet2" sheetId="20" r:id="rId18"/>
-    <sheet name="新環境構築手順" sheetId="21" r:id="rId19"/>
+    <sheet name="Laravel" sheetId="17" r:id="rId11"/>
+    <sheet name="練習手順書" sheetId="12" r:id="rId12"/>
+    <sheet name="cmd命令" sheetId="14" r:id="rId13"/>
+    <sheet name="更新" sheetId="15" r:id="rId14"/>
+    <sheet name="パケージ開発" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="382">
   <si>
     <t>vagrant box add laravel/homestead</t>
   </si>
@@ -2234,111 +2230,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>git clone http://dev-support.ace-information.com/gitbucket/git/future/future.git</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>n.tani  VMGquyJLDvb6</t>
-  </si>
-  <si>
-    <t>cp .env.example .env</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>composer install</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mkdir -p storage/framework/cache/data</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mkdir -p storage/logs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>npm install</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chmod 777 storage/*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chmod 777 storage/*/*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chmod 777 storage/*/*/*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>php artisan key:generate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>composer dump-autoload</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>php artisan clear-compiled</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>php artisan optimize</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>php artisan config:clear</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>php artisan cache:clear</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>php artisan route:clear</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>npm cache verify</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>npm run prod</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>APP_DEBUG=TRUE</t>
-  </si>
-  <si>
-    <t>APP_URL=http://localhost</t>
-  </si>
-  <si>
-    <t>info@ace-information.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Jw54NVOe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>future_master.sql</t>
-  </si>
-  <si>
-    <t>future_vendor_tani.sql</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USER/PASS future_admin/Mvn2mDKe5k+95tu</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2613,28 +2505,6 @@
   </si>
   <si>
     <t>css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://localhost:8000/OSYSWOW/login</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://localhost:8000/mypage/login</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00000219X0900058</t>
-  </si>
-  <si>
-    <t>t2j0kJnL</t>
-  </si>
-  <si>
-    <t>pdfmake</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>build/vfs_fonts.js-&gt;node_modules/pdfmake/build</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2817,140 +2687,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ソースコピー：node_modulesとvendor以外</t>
-    <rPh sb="26" eb="28">
-      <t>イガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sudo composer install</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sudo php artisan storage:link</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>vendor source インストール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mysql -u future_admin -pMvn2mDKe5k+95tu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CREATE DATABASE future_master DEFAULT CHARACTER SET utf8 COLLATE utf8_general_ci;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mysql -u future_admin -pMvn2mDKe5k+95tu future_master &lt; future_master_init.sql</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CREATE DATABASE future_vendor_tokyo DEFAULT CHARACTER SET utf8 COLLATE utf8_general_ci;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mysql -u future_admin -pMvn2mDKe5k+95tu future_vendor_tokyo &lt; future_vendor_init.sql</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cd public_html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cd public_html/tokyo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DROP DATABASE future_master;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DROP DATABASE future_vendor_tokyo;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PHP command</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理ログイン</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vendorログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://tokyo.ace-information.com/OSYSWOW/login</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://tokyo.ace-information.com/admin/login</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>.env修正</t>
-    <rPh sb="4" eb="6">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>domain</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>debug</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>admin@argon.com</t>
-  </si>
-  <si>
-    <t>zjhuen1915</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*apache が/home/future/public_htmlアクセス権限があること。</t>
-    <rPh sb="37" eb="39">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社作成条件</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*apache が/usr/bin/mysql実行権限があること。</t>
-    <rPh sb="23" eb="25">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>git checkout -b teigun</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2973,342 +2709,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>test1@freedata.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>freedatatest1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test5@freedata.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>freedatatest5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>terms</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>updated_user_id</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>created_user_id</t>
-  </si>
-  <si>
-    <t>G-MIST kitchen単品</t>
-  </si>
-  <si>
-    <t>床置き噴霧器＋G-MIST50プラン</t>
-  </si>
-  <si>
-    <t>床置き噴霧器＋G-MIST100プラン</t>
-  </si>
-  <si>
-    <t>業務用噴霧器＋G-MIST50プラン</t>
-  </si>
-  <si>
-    <t>業務用噴霧器＋G-MIST100プラン</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>agency_id</t>
-  </si>
-  <si>
-    <t>category_id</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>G-MIST50単品</t>
-  </si>
-  <si>
-    <t>G-MIST100単品</t>
-  </si>
-  <si>
-    <t>G-MIST50単品</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G-MIST100単品</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G-MIST kitchen単品</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 1,"capacity": 100,"sub_product_id": 8,"sub_product_name":"G-MIST50単品","sub_product_stock": 1,"frequency": 1,"cacellation_fee_6month": 0,"cacellation_fee_11month": 0,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 1,"capacity": 100,"sub_product_id": 9,"sub_product_name":"G-MIST100単品","sub_product_stock": 1,"frequency": 1,"cacellation_fee_6month": 0,"cacellation_fee_11month": 0,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 1,"capacity": 100,"sub_product_id": 10,"sub_product_name":"G-MIST kitchen単品","sub_product_stock": 1,"frequency": 1,"cacellation_fee_6month": 0,"cacellation_fee_11month": 0,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>業務用噴霧器＋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>G-MIST50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>プラン</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 1,"capacity": 20,"sub_product_id": 11,"sub_product_name":"床置き噴霧器+G-MIST 50","sub_product_stock": 1,"frequency": 4,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 2,"capacity": 20,"sub_product_id": 11,"sub_product_name":"床置き噴霧器+G-MIST 50","sub_product_stock": 1,"frequency": 3,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 3,"capacity": 20,"sub_product_id": 11,"sub_product_name":"床置き噴霧器+G-MIST 50","sub_product_stock": 1,"frequency": 2,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 4,"capacity": 20,"sub_product_id": 11,"sub_product_name":"床置き噴霧器+G-MIST 50","sub_product_stock": 1,"frequency": 1,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 5,"capacity": 20,"sub_product_id": 11,"sub_product_name":"床置き噴霧器+G-MIST 50","sub_product_stock": 1,"frequency": 1,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 1,"capacity": 20,"sub_product_id": 12,"sub_product_name":"床置き噴霧器+G-MIST 100","sub_product_stock": 1,"frequency": 4,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 2,"capacity": 20,"sub_product_id": 12,"sub_product_name":"床置き噴霧器+G-MIST 100","sub_product_stock": 1,"frequency": 3,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 3,"capacity": 20,"sub_product_id": 12,"sub_product_name":"床置き噴霧器+G-MIST 100","sub_product_stock": 1,"frequency": 2,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 4,"capacity": 20,"sub_product_id": 12,"sub_product_name":"床置き噴霧器+G-MIST 100","sub_product_stock": 1,"frequency": 1,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 5,"capacity": 20,"sub_product_id": 12,"sub_product_name":"床置き噴霧器+G-MIST 100","sub_product_stock": 1,"frequency": 1,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 1,"capacity": 20,"sub_product_id": 13,"sub_product_name":"業務用噴霧器+G-MIST 50","sub_product_stock": 1,"frequency": 2,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 2,"capacity": 20,"sub_product_id": 13,"sub_product_name":"業務用噴霧器+G-MIST 50","sub_product_stock": 1,"frequency": 1,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 3,"capacity": 20,"sub_product_id": 13,"sub_product_name":"業務用噴霧器+G-MIST 50","sub_product_stock": 1,"frequency": 1,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 4,"capacity": 20,"sub_product_id": 13,"sub_product_name":"業務用噴霧器+G-MIST 50","sub_product_stock": 1,"frequency": 1,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 1,"capacity": 20,"sub_product_id": 14,"sub_product_name":"業務用噴霧器+G-MIST 100","sub_product_stock": 1,"frequency": 2,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 2,"capacity": 20,"sub_product_id": 14,"sub_product_name":"業務用噴霧器+G-MIST 100","sub_product_stock": 1,"frequency": 1,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 3,"capacity": 20,"sub_product_id": 14,"sub_product_name":"業務用噴霧器+G-MIST 100","sub_product_stock": 1,"frequency": 1,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"quantity": 4,"capacity": 20,"sub_product_id": 14,"sub_product_name":"業務用噴霧器+G-MIST 100","sub_product_stock": 1,"frequency": 1,"cacellation_fee_6month": 210000,"cacellation_fee_11month": 90000,"update_month": 12}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新環境構築手順</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①DB構築</t>
-    <rPh sb="3" eb="5">
-      <t>コウチク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二つDB構築future_vendor_init→future_vendor_1create、future_master_init→future_master</t>
-    <rPh sb="0" eb="1">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウチク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②public/resources/css/したのはCSのため、削除する</t>
-    <rPh sb="32" eb="34">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③vendor/tcgコピー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④composer.lock削除して、sudo composer install実行する。</t>
-    <rPh sb="14" eb="16">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑤package-lock.jsonを削除,npm install</t>
-    <rPh sb="19" eb="21">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑥sudo php artisan storage:link</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑦fontコピー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>node_modules/pdfmaker/build/vfs_fonts.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑨DB修正</t>
-    <rPh sb="3" eb="5">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sudo npm install -g yarn;yarn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://1create.co.jp/admin/login</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑩設定ファイル修正</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>admin@argon.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://1create.co.jp/OSYSWOW/login</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑪データクリア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>data_clear.sql</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑫初期ログイン</t>
-    <rPh sb="1" eb="3">
-      <t>ショキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>config/databases.php tokyo→1create</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MY_controller.php tokyo→1create</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑧npm run prod</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>package.jsonにNODE_OPTIONS=--max_old_space_size=8192 を追加しました。</t>
-    <rPh sb="53" eb="55">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メモリ不足</t>
     <rPh sb="3" eb="5">
       <t>ブソク</t>
@@ -3317,6 +2717,1476 @@
   </si>
   <si>
     <t>memory_limit=2G in php.ini</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>acl.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin-menu.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>system.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者メニュー設定</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースフォルダー：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seeders</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル、ファンクションなど新規変更</t>
+    <rPh sb="14" eb="16">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期データ</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約パタン</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Contractsフォルダー：インターフェース作成、一テーブル一インターフェース</t>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modelsフォルダー：インターフェース実装、一テーブル一実装クラス</t>
+    <rPh sb="20" eb="22">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>protected $fillable = [
+        'category_id',
+        'icon',
+        'tooltip',
+        'status',
+    ];</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>protected $table = 'velocity_category';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロキシ作成、一テーブル一プロキシ</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$timestamps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>更新、新規時間フィールド要らない</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>    {</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public function Category()
+    {
+        return $this-&gt;belongsTo(CategoryProxy::modelClass());
+    }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属対象指定</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>翻訳対象指定</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public $translatedAttributes = [
+        'title',
+        'custom_title',
+        'custom_heading',
+        'page_link',
+        'link_target',
+        'catalog_type',
+        'products',
+        'description',
+    ];</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィルター対象指定</t>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public function categories()
+    {
+        return $this-&gt;belongsToMany(CategoryProxy::modelClass(), 'product_categories','product_id');
+    }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>protected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$guarded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = [];</t>
+    </r>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所有対象指定</t>
+    <rPh sb="0" eb="2">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所有対象指定</t>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   public function order_item()
+    {
+        return $this-&gt;hasOne(OrderItemProxy::modelClass());
+    }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public function event_tickets()
+    {
+        return $this-&gt;hasMany(BookingProductEventTicketProxy::modelClass());
+    }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>protected $casts = [
+        'available_from' =&gt; 'datetime',
+        'available_to'   =&gt; 'datetime',
+    ];</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>protected $with = ['default_slot', 'appointment_slot', 'event_tickets', 'rental_slot', 'table_slot'];</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドタイプ変換</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Repositoriesフォルダー：一テーブル一リポジトリ</t>
+    <rPh sb="18" eb="19">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public function __construct(
+        AttributeRepository $attributeRepository,
+        App $app
+    )
+    {
+        $this-&gt;attributeRepository = $attributeRepository;
+        parent::__construct($app);
+    }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    function model()
+    {
+        return 'Webkul\Product\Contracts\Product';
+    }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターフェース利用して、モデル指定</t>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public function getFeaturedProducts($count)
+    {
+        $results = app(ProductFlatRepository::class)-&gt;scopeQuery(function($query) {
+            $channel = request()-&gt;get('channel') ?: (core()-&gt;getCurrentChannelCode() ?: core()-&gt;getDefaultChannelCode());
+            $locale = request()-&gt;get('locale') ?: app()-&gt;getLocale();
+            return $query-&gt;distinct()
+                         -&gt;addSelect('product_flat.*')
+                         -&gt;where('product_flat.status', 1)
+                         -&gt;where('product_flat.visible_individually', 1)
+                         -&gt;where('product_flat.featured', 1)
+                         -&gt;where('product_flat.channel', $channel)
+                         -&gt;where('product_flat.locale', $locale)
+                         -&gt;orderBy('product_id', 'desc');
+        })-&gt;paginate($count);
+        return $results;
+    }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造関数</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応用関数</t>
+    <rPh sb="0" eb="2">
+      <t>オウヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATAGRID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>protected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'category_menu_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>protected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$sortOrder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'desc'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prepareQueryBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>addColumns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prepareActions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prepareMassActions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>インデックスフィールド指定</t>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソート順指定</t>
+    <rPh sb="3" eb="4">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLでデータ検索</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行単位アクション、編集と削除</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてレコードアクション、削除</t>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Routes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'middleware'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> =&gt; [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'web'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> () {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prefix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'admin/velocity'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> () {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'middleware'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> =&gt; [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'admin'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> () {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>namespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Webkul\Velocity\Http\Controllers\Admin'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> () {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Content Pages Route</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'/content'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'ContentController@index'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>defaults</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'_config'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'view'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'velocity::admin.content.index'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                ])-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'velocity.admin.content.index'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>別名</t>
+    <rPh sb="0" eb="2">
+      <t>ベツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビュー指定</t>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLとコントロールメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビューのURL=prefix+URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>config/auth.php設定参照、webとadminはadminsテーブsessionチェックする、customerの場会、Customerテーブルsessionチェックする</t>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限設定</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3324,10 +4194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ h:mm:ss"/>
-  </numFmts>
-  <fonts count="45">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3505,12 +4372,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF1A1A1A"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FFDCDCAA"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -3585,41 +4446,21 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -3644,12 +4485,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF87E7AD"/>
+        <fgColor rgb="FF1E1E1E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3657,27 +4498,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3711,35 +4537,28 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -9319,7 +10138,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9504,11 +10323,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436FA18B-9398-4109-A49A-F20DFCCFE2FF}">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E420B384-A400-46CB-9CB1-8C46391AFB98}">
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9520,267 +10339,8 @@
       <c r="B1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="C1" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>317</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" xr:uid="{AD05D98E-8768-464B-9DAF-3D605C395E61}"/>
-    <hyperlink ref="B28" r:id="rId2" xr:uid="{53A11F37-773E-4314-8485-142838EDF676}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{DA797775-AF7C-4347-83C7-F91C761B5DF6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E420B384-A400-46CB-9CB1-8C46391AFB98}">
-  <dimension ref="A1:G49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9788,33 +10348,33 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9822,45 +10382,45 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="G9" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="G10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="C11" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="G11" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9868,29 +10428,29 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="E13" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="G13" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9898,26 +10458,26 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="E15" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="E16" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="C17" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9925,15 +10485,15 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="C19" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="D19" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9941,139 +10501,139 @@
         <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="C21" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="C23" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="D24" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="D25" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="D26" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="C27" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="23" customFormat="1">
-      <c r="B29" s="23" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="23" customFormat="1">
-      <c r="C30" s="23" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="23" customFormat="1">
-      <c r="C31" s="23" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="23" customFormat="1">
-      <c r="C32" s="23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" s="23" customFormat="1"/>
-    <row r="34" spans="2:3" s="23" customFormat="1">
-      <c r="B34" s="23" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" s="23" customFormat="1">
-      <c r="C35" s="24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" s="23" customFormat="1">
-      <c r="C36" s="24" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" s="23" customFormat="1">
-      <c r="C37" s="24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="22" customFormat="1">
+      <c r="B29" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="22" customFormat="1">
+      <c r="C30" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="22" customFormat="1">
+      <c r="C31" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="22" customFormat="1">
+      <c r="C32" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" s="22" customFormat="1"/>
+    <row r="34" spans="2:3" s="22" customFormat="1">
+      <c r="B34" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" s="22" customFormat="1">
+      <c r="C35" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" s="22" customFormat="1">
+      <c r="C36" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" s="22" customFormat="1">
+      <c r="C37" s="23" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="2:3" s="23" customFormat="1">
-      <c r="B38" s="23" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" s="23" customFormat="1">
-      <c r="C39" s="24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" s="23" customFormat="1">
-      <c r="C40" s="25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" s="23" customFormat="1">
-      <c r="C41" s="25" t="s">
-        <v>329</v>
+    <row r="38" spans="2:3" s="22" customFormat="1">
+      <c r="B38" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" s="22" customFormat="1">
+      <c r="C39" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" s="22" customFormat="1">
+      <c r="C40" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" s="22" customFormat="1">
+      <c r="C41" s="24" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="C44" s="20" t="s">
-        <v>332</v>
+      <c r="C44" s="19" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="C45" s="21" t="s">
-        <v>333</v>
+      <c r="C45" s="20" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="C46" s="20" t="s">
-        <v>335</v>
+      <c r="C46" s="19" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="C47" s="20" t="s">
-        <v>334</v>
+      <c r="C47" s="19" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="C48" s="22" t="s">
-        <v>336</v>
+      <c r="C48" s="21" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="3" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -10086,12 +10646,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC8806A-87EF-4119-ABC3-92C25438C38B}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10236,7 +10796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834C25DB-ACA4-48F1-8BA8-4B10D6FE0712}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -10334,12 +10894,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E812C7-F868-439B-9434-ECE645208C01}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10425,1656 +10985,418 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CFD683-4E95-4437-BF6E-84A41C861CC1}">
-  <dimension ref="A1:G39"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE88108-7C76-442C-BEBA-81CA12C99806}">
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="112.8" customHeight="1">
+      <c r="C14" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="42" customHeight="1">
+      <c r="C15" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="111" customHeight="1">
+      <c r="C16" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="111" customHeight="1">
+      <c r="C17" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="111" customHeight="1">
+      <c r="C18" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="111" customHeight="1">
+      <c r="C19" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="189.6" customHeight="1">
+      <c r="C20" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="34.200000000000003" customHeight="1">
+      <c r="C21" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
+    <row r="22" spans="1:7" ht="34.200000000000003" customHeight="1">
+      <c r="C22" s="30" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="34.200000000000003" customHeight="1">
+      <c r="C23" s="30" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="B21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" t="s">
-        <v>255</v>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" t="s">
-        <v>256</v>
+      <c r="D24" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="88.8" customHeight="1">
+      <c r="C26" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" customHeight="1">
+      <c r="C27" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="149.4" customHeight="1">
+      <c r="C28" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
         <v>354</v>
       </c>
-      <c r="B29" s="3" t="s">
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="31"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="31"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="31"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F39" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="G30" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="B31" t="s">
-        <v>362</v>
-      </c>
-      <c r="G31" t="s">
+    <row r="40" spans="2:6">
+      <c r="B40" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="31"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>355</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="3" t="s">
+    <row r="44" spans="2:6">
+      <c r="B44" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="31"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F46" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="B50" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="I50" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="B51" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I51" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="53" spans="1:9">
+      <c r="B53" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="54" spans="1:9">
+      <c r="B54" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
+    <row r="55" spans="1:9">
+      <c r="B55" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+      <c r="I55" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="B56" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="I56" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="B57" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I57" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>242</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" xr:uid="{2F9AB083-A572-42F8-B16B-E99E07B12E3B}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{8285CF9D-DE73-4971-86AF-C1380032692D}"/>
-    <hyperlink ref="B29" r:id="rId3" xr:uid="{2B69DF9F-84B3-459F-A732-7442BBBB2823}"/>
-    <hyperlink ref="B35" r:id="rId4" xr:uid="{50DB4D3B-B13F-4CA4-A760-3FF16A48E46F}"/>
-    <hyperlink ref="B38" r:id="rId5" xr:uid="{8803B063-6D09-4678-8941-A7B1FC503687}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C82AB8-D98E-4248-B64E-02C9AFF872EE}">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="29.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="36">
-      <c r="A1" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="29">
-        <v>40</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" s="29">
-        <v>14000</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F2" s="29">
-        <v>0</v>
-      </c>
-      <c r="G2" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="29">
-        <v>41</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="C3" s="29">
-        <v>21000</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F3" s="29">
-        <v>0</v>
-      </c>
-      <c r="G3" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="29">
-        <v>42</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="C4" s="29">
-        <v>21300</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F4" s="29">
-        <v>0</v>
-      </c>
-      <c r="G4" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H4" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="29">
-        <v>43</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5" s="33">
-        <v>4500</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F5" s="29">
-        <v>0</v>
-      </c>
-      <c r="G5" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="29">
-        <v>44</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="C6" s="33">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F6" s="29">
-        <v>0</v>
-      </c>
-      <c r="G6" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H6" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="29">
-        <v>45</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="C7" s="33">
-        <v>6300</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F7" s="29">
-        <v>0</v>
-      </c>
-      <c r="G7" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H7" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="29">
-        <v>46</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="C8" s="33">
-        <v>9800</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F8" s="29">
-        <v>0</v>
-      </c>
-      <c r="G8" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H8" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="29">
-        <v>47</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="33">
-        <v>16800</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F9" s="29">
-        <v>0</v>
-      </c>
-      <c r="G9" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="29">
-        <v>48</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C10" s="33">
-        <v>5700</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F10" s="29">
-        <v>0</v>
-      </c>
-      <c r="G10" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="29">
-        <v>49</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C11" s="33">
-        <v>6700</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F11" s="29">
-        <v>0</v>
-      </c>
-      <c r="G11" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H11" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="29">
-        <v>50</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C12" s="33">
-        <v>8700</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F12" s="29">
-        <v>0</v>
-      </c>
-      <c r="G12" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H12" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="29">
-        <v>51</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C13" s="33">
-        <v>14600</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F13" s="29">
-        <v>0</v>
-      </c>
-      <c r="G13" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H13" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="29">
-        <v>52</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C14" s="33">
-        <v>26400</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F14" s="29">
-        <v>0</v>
-      </c>
-      <c r="G14" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H14" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="29">
-        <v>53</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="C15" s="33">
-        <v>9100</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F15" s="29">
-        <v>0</v>
-      </c>
-      <c r="G15" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H15" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="29">
-        <v>54</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="C16" s="33">
-        <v>12800</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F16" s="29">
-        <v>0</v>
-      </c>
-      <c r="G16" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H16" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="29">
-        <v>55</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="C17" s="33">
-        <v>19800</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0</v>
-      </c>
-      <c r="G17" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H17" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="29">
-        <v>56</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="C18" s="33">
-        <v>26800</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F18" s="29">
-        <v>0</v>
-      </c>
-      <c r="G18" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H18" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="29">
-        <v>57</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="C19" s="33">
-        <v>11500</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F19" s="29">
-        <v>0</v>
-      </c>
-      <c r="G19" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H19" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="29">
-        <v>58</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="C20" s="33">
-        <v>17400</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F20" s="29">
-        <v>0</v>
-      </c>
-      <c r="G20" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H20" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="29">
-        <v>59</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="C21" s="33">
-        <v>29200</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F21" s="29">
-        <v>0</v>
-      </c>
-      <c r="G21" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H21" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="29">
-        <v>60</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="C22" s="33">
-        <v>41000</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="F22" s="29">
-        <v>0</v>
-      </c>
-      <c r="G22" s="31">
-        <v>43762.00335648148</v>
-      </c>
-      <c r="H22" s="29">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59277772-019B-4646-88EA-0C28D81E9F19}">
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="6" max="6" width="29.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="182.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="36">
-      <c r="A1" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>40</v>
-      </c>
-      <c r="B2" s="29">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2" s="29">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="G2" s="29">
-        <v>14000</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="I2" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J2" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>41</v>
-      </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>41</v>
-      </c>
-      <c r="D3" s="29">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="G3" s="29">
-        <v>21000</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="I3" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J3" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>42</v>
-      </c>
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>42</v>
-      </c>
-      <c r="D4" s="29">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="G4" s="29">
-        <v>21300</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="I4" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J4" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="29">
-        <v>43</v>
-      </c>
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29">
-        <v>43</v>
-      </c>
-      <c r="D5" s="29">
-        <v>2</v>
-      </c>
-      <c r="E5" s="29">
-        <v>12</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="G5" s="33">
-        <v>4500</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="I5" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J5" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="29">
-        <v>44</v>
-      </c>
-      <c r="B6" s="29">
-        <v>1</v>
-      </c>
-      <c r="C6" s="29">
-        <v>44</v>
-      </c>
-      <c r="D6" s="29">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="G6" s="33">
-        <v>5000</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="I6" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J6" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="29">
-        <v>45</v>
-      </c>
-      <c r="B7" s="29">
-        <v>1</v>
-      </c>
-      <c r="C7" s="29">
-        <v>45</v>
-      </c>
-      <c r="D7" s="29">
-        <v>2</v>
-      </c>
-      <c r="E7" s="29">
-        <v>12</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="G7" s="33">
-        <v>6300</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="I7" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J7" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="29">
-        <v>46</v>
-      </c>
-      <c r="B8" s="29">
-        <v>1</v>
-      </c>
-      <c r="C8" s="29">
-        <v>46</v>
-      </c>
-      <c r="D8" s="29">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="G8" s="33">
-        <v>9800</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="I8" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J8" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="29">
-        <v>47</v>
-      </c>
-      <c r="B9" s="29">
-        <v>1</v>
-      </c>
-      <c r="C9" s="29">
-        <v>47</v>
-      </c>
-      <c r="D9" s="29">
-        <v>2</v>
-      </c>
-      <c r="E9" s="29">
-        <v>12</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="G9" s="33">
-        <v>16800</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="I9" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J9" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="29">
-        <v>48</v>
-      </c>
-      <c r="B10" s="29">
-        <v>1</v>
-      </c>
-      <c r="C10" s="29">
-        <v>48</v>
-      </c>
-      <c r="D10" s="29">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>13</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="G10" s="33">
-        <v>5700</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="I10" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J10" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="29">
-        <v>49</v>
-      </c>
-      <c r="B11" s="29">
-        <v>1</v>
-      </c>
-      <c r="C11" s="29">
-        <v>49</v>
-      </c>
-      <c r="D11" s="29">
-        <v>2</v>
-      </c>
-      <c r="E11" s="29">
-        <v>13</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="G11" s="33">
-        <v>6700</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="I11" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J11" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="29">
-        <v>50</v>
-      </c>
-      <c r="B12" s="29">
-        <v>1</v>
-      </c>
-      <c r="C12" s="29">
-        <v>50</v>
-      </c>
-      <c r="D12" s="29">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>13</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="G12" s="33">
-        <v>8700</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="I12" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J12" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="29">
-        <v>51</v>
-      </c>
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="29">
-        <v>51</v>
-      </c>
-      <c r="D13" s="29">
-        <v>2</v>
-      </c>
-      <c r="E13" s="29">
-        <v>13</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="G13" s="33">
-        <v>14600</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="I13" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J13" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="29">
-        <v>52</v>
-      </c>
-      <c r="B14" s="29">
-        <v>1</v>
-      </c>
-      <c r="C14" s="29">
-        <v>52</v>
-      </c>
-      <c r="D14" s="29">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="G14" s="33">
-        <v>26400</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="I14" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J14" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="29">
-        <v>53</v>
-      </c>
-      <c r="B15" s="29">
-        <v>1</v>
-      </c>
-      <c r="C15" s="29">
-        <v>53</v>
-      </c>
-      <c r="D15" s="29">
-        <v>2</v>
-      </c>
-      <c r="E15" s="29">
-        <v>14</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="G15" s="33">
-        <v>9100</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="I15" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J15" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="29">
-        <v>54</v>
-      </c>
-      <c r="B16" s="29">
-        <v>1</v>
-      </c>
-      <c r="C16" s="29">
-        <v>54</v>
-      </c>
-      <c r="D16" s="29">
-        <v>2</v>
-      </c>
-      <c r="E16" s="29">
-        <v>14</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="G16" s="33">
-        <v>12800</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="I16" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J16" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="29">
-        <v>55</v>
-      </c>
-      <c r="B17" s="29">
-        <v>1</v>
-      </c>
-      <c r="C17" s="29">
-        <v>55</v>
-      </c>
-      <c r="D17" s="29">
-        <v>2</v>
-      </c>
-      <c r="E17" s="29">
-        <v>14</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="G17" s="33">
-        <v>19800</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="I17" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J17" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="29">
-        <v>56</v>
-      </c>
-      <c r="B18" s="29">
-        <v>1</v>
-      </c>
-      <c r="C18" s="29">
-        <v>56</v>
-      </c>
-      <c r="D18" s="29">
-        <v>2</v>
-      </c>
-      <c r="E18" s="29">
-        <v>14</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="G18" s="33">
-        <v>26800</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="I18" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J18" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="29">
-        <v>57</v>
-      </c>
-      <c r="B19" s="29">
-        <v>1</v>
-      </c>
-      <c r="C19" s="29">
-        <v>57</v>
-      </c>
-      <c r="D19" s="29">
-        <v>2</v>
-      </c>
-      <c r="E19" s="29">
-        <v>15</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="G19" s="33">
-        <v>11500</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>415</v>
-      </c>
-      <c r="I19" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J19" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="29">
-        <v>58</v>
-      </c>
-      <c r="B20" s="29">
-        <v>1</v>
-      </c>
-      <c r="C20" s="29">
-        <v>58</v>
-      </c>
-      <c r="D20" s="29">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>15</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="G20" s="33">
-        <v>17400</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="I20" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J20" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="29">
-        <v>59</v>
-      </c>
-      <c r="B21" s="29">
-        <v>1</v>
-      </c>
-      <c r="C21" s="29">
-        <v>59</v>
-      </c>
-      <c r="D21" s="29">
-        <v>2</v>
-      </c>
-      <c r="E21" s="29">
-        <v>15</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="G21" s="33">
-        <v>29200</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="I21" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J21" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="29">
-        <v>60</v>
-      </c>
-      <c r="B22" s="29">
-        <v>1</v>
-      </c>
-      <c r="C22" s="29">
-        <v>60</v>
-      </c>
-      <c r="D22" s="29">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="G22" s="33">
-        <v>41000</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="I22" s="31">
-        <v>43797.643784722219</v>
-      </c>
-      <c r="J22" s="31">
-        <v>43762.00335648148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="G23" s="33"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9C4882-1DFE-4D01-A58C-326966185AD6}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="54.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>427</v>
-      </c>
-      <c r="B8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>440</v>
-      </c>
-      <c r="B9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>435</v>
-      </c>
-      <c r="B17" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>437</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{EC89C5B3-36C0-46C8-9973-3905865F7120}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{3470BF17-6D1A-4CE9-9D12-9807E401DE67}"/>
-    <hyperlink ref="B20" r:id="rId3" xr:uid="{4C1ED2EB-5098-499C-AEFC-5C5EBE145F2B}"/>
-    <hyperlink ref="B19" r:id="rId4" xr:uid="{A6749594-1601-4555-A4A6-65B4FB001426}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -12082,7 +11404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
@@ -12437,10 +11759,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>442</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>443</v>
+        <v>310</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -12707,8 +12029,8 @@
       <c r="B23" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>338</v>
+      <c r="C23" s="25" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -13072,10 +12394,10 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="C43" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -13253,10 +12575,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13264,7 +12586,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13272,7 +12594,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
